--- a/Nodeid_to_Nodename.xlsx
+++ b/Nodeid_to_Nodename.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nandhu\comeai\Result_Share\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F15E86-4EF1-4F3C-B3B8-EE6D330ECD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149192EB-898C-4D89-9B6C-586D138B76DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C6B31F2-15B0-4D1F-A548-A0739B1519B6}"/>
   </bookViews>
@@ -1004,11 +1004,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,13 +1345,10 @@
   <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1363,458 +1359,458 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Nodeid_to_Nodename.xlsx
+++ b/Nodeid_to_Nodename.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nandhu\comeai\Result_Share\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149192EB-898C-4D89-9B6C-586D138B76DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906CB1C8-4DED-4DC0-9F47-ED067D4A59DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C6B31F2-15B0-4D1F-A548-A0739B1519B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$197</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="270">
   <si>
     <t>FI_1</t>
   </si>
@@ -50,10 +53,6 @@
     <t>FI_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Food Production Risk
-</t>
-  </si>
-  <si>
     <t>F2_2</t>
   </si>
   <si>
@@ -72,52 +71,24 @@
     <t>FI_9</t>
   </si>
   <si>
-    <t xml:space="preserve">Food Affordability Risk
-</t>
-  </si>
-  <si>
     <t>F2_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Food Availability Risk
-</t>
-  </si>
-  <si>
     <t>F2_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Food Safety Risk
-</t>
-  </si>
-  <si>
     <t>F2_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Malnutrition_Anemia_Risk to Children
-</t>
-  </si>
-  <si>
     <t>F2_5</t>
   </si>
   <si>
-    <t xml:space="preserve">Anemia Risk to Women
-</t>
-  </si>
-  <si>
     <t>F2_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk of Hunger
-</t>
-  </si>
-  <si>
     <t>F3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Food Safety and Health Risks
-</t>
-  </si>
-  <si>
     <t>F3_2</t>
   </si>
   <si>
@@ -175,122 +146,54 @@
     <t>H1_8</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelter Risk
-</t>
-  </si>
-  <si>
     <t>I2_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Technology access risk
-</t>
-  </si>
-  <si>
     <t>I2_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy Risk
-</t>
-  </si>
-  <si>
     <t>I2_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Public Transportation Risk
-</t>
-  </si>
-  <si>
     <t>I2_5</t>
   </si>
   <si>
-    <t xml:space="preserve">Water and Sanitation Risk
-</t>
-  </si>
-  <si>
     <t>I2_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk to public safety and wellbeing
-</t>
-  </si>
-  <si>
     <t>I2_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Individual Infrastructure Risk
-</t>
-  </si>
-  <si>
     <t>I3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Community Infrastructure Risk
-</t>
-  </si>
-  <si>
     <t>I3_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Maternal Health Risk
-</t>
-  </si>
-  <si>
     <t>H2_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Children Health Risk
-</t>
-  </si>
-  <si>
     <t>H2_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Communicable Diseases Risk
-</t>
-  </si>
-  <si>
     <t>H2_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Non_Communicable Diseases Risk
-</t>
-  </si>
-  <si>
     <t>H2_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Unintentional injuries risk
-</t>
-  </si>
-  <si>
     <t>H2_5</t>
   </si>
   <si>
-    <t xml:space="preserve">Intentional injuries risk
-</t>
-  </si>
-  <si>
     <t>H2_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Maternal and Child Health Risks
-</t>
-  </si>
-  <si>
     <t>H3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Disease Burden
-</t>
-  </si>
-  <si>
     <t>H3_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Injuries Burden
-</t>
-  </si>
-  <si>
     <t>H3_3</t>
   </si>
   <si>
@@ -318,55 +221,27 @@
     <t>E1_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Unemployment Risk
-</t>
-  </si>
-  <si>
     <t>E2_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Illiteracy risk
-</t>
-  </si>
-  <si>
     <t>E2_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Precarious Employment Risk
-</t>
-  </si>
-  <si>
     <t>E2_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk to Worker Protection
-</t>
-  </si>
-  <si>
     <t>E2_5</t>
   </si>
   <si>
     <t>E1_8</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk of NEET
-</t>
-  </si>
-  <si>
     <t>E3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Risks to Legal Employment
-</t>
-  </si>
-  <si>
     <t>E3_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Risks of Doing Business
-</t>
-  </si>
-  <si>
     <t>E3_3</t>
   </si>
   <si>
@@ -397,73 +272,33 @@
     <t>C1_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Air Pollution Risks
-</t>
-  </si>
-  <si>
     <t>C2_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Pollution Risks
-</t>
-  </si>
-  <si>
     <t>C2_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Waste pollution risks
-</t>
-  </si>
-  <si>
     <t>C2_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk of Climate Events
-</t>
-  </si>
-  <si>
     <t>C2_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk to natural resources
-</t>
-  </si>
-  <si>
     <t>C2_5</t>
   </si>
   <si>
-    <t xml:space="preserve">Risks to climate resilience
-</t>
-  </si>
-  <si>
     <t>C2_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Environmental Risks
-</t>
-  </si>
-  <si>
     <t>C3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Climate Change Risks
-</t>
-  </si>
-  <si>
     <t>C3_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Ease of doing business
-</t>
-  </si>
-  <si>
     <t>E2_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Risks to Business Growth
-</t>
-  </si>
-  <si>
     <t>E2_6</t>
   </si>
   <si>
@@ -494,107 +329,43 @@
     <t>G1_9</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk to women_s health
-</t>
-  </si>
-  <si>
     <t>G2_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk of gender or discriminatory violence
-</t>
-  </si>
-  <si>
     <t>G2_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk of socio_economic inequality
-</t>
-  </si>
-  <si>
     <t>G2_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk of community exclusion and discrimination
-</t>
-  </si>
-  <si>
     <t>G2_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk to Gender based Agency
-</t>
-  </si>
-  <si>
     <t>G2_5</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk of Health Inequality
-</t>
-  </si>
-  <si>
     <t>G3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk of Disempowerment
-</t>
-  </si>
-  <si>
     <t>G3_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Risks to Food Security
-</t>
-  </si>
-  <si>
     <t>F4_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Risks to Health Security
-</t>
-  </si>
-  <si>
     <t>H4_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Risks to Infrastructure Security
-</t>
-  </si>
-  <si>
     <t>I4_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Risks to Economic Security
-</t>
-  </si>
-  <si>
     <t>E4_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Risks to Socio_Economic and Health Security
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W_1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risks to Environment and Climate Security
-</t>
-  </si>
-  <si>
     <t>C4_1</t>
   </si>
   <si>
     <t>G4_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risks to Community Well_Being
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W_2
-</t>
   </si>
   <si>
     <t>Node_id</t>
@@ -604,10 +375,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Risk to Gender &amp; Equality Security
-</t>
-  </si>
-  <si>
     <t>F1_13</t>
   </si>
   <si>
@@ -674,36 +441,6 @@
     <t>G1_12</t>
   </si>
   <si>
-    <t>H1_14</t>
-  </si>
-  <si>
-    <t>H1_15</t>
-  </si>
-  <si>
-    <t>I1_13</t>
-  </si>
-  <si>
-    <t>E1_16</t>
-  </si>
-  <si>
-    <t>E1_17</t>
-  </si>
-  <si>
-    <t>E1_18</t>
-  </si>
-  <si>
-    <t>E1_19</t>
-  </si>
-  <si>
-    <t>E1_20</t>
-  </si>
-  <si>
-    <t>E1_21</t>
-  </si>
-  <si>
-    <t>E1_22</t>
-  </si>
-  <si>
     <t>Ability to feed daily</t>
   </si>
   <si>
@@ -713,18 +450,12 @@
     <t>Ability to access local markets</t>
   </si>
   <si>
-    <t>Food waste</t>
-  </si>
-  <si>
     <t>Ability to grow food</t>
   </si>
   <si>
     <t>Crop diversity</t>
   </si>
   <si>
-    <t>Diversity of Non-plant food sources</t>
-  </si>
-  <si>
     <t>Prevalence of foodborne illness</t>
   </si>
   <si>
@@ -740,9 +471,6 @@
     <t>Prevalence of malnutrition</t>
   </si>
   <si>
-    <t>Prevalence of Anaemia among women</t>
-  </si>
-  <si>
     <t>Availability of proper home or shelter</t>
   </si>
   <si>
@@ -764,9 +492,6 @@
     <t>Access to clean toilets</t>
   </si>
   <si>
-    <t>Access to  drinking water</t>
-  </si>
-  <si>
     <t>Access to affordable transportation</t>
   </si>
   <si>
@@ -782,18 +507,9 @@
     <t>Prevalence of poor maternal health</t>
   </si>
   <si>
-    <t>Health care affordability</t>
-  </si>
-  <si>
-    <t>Access to  healthcare</t>
-  </si>
-  <si>
     <t>Prevalence of poor infant health</t>
   </si>
   <si>
-    <t>Prevalence of TB (Disease Burden)</t>
-  </si>
-  <si>
     <t>Prevalence of HIV</t>
   </si>
   <si>
@@ -803,48 +519,21 @@
     <t>Prevalence of cancer</t>
   </si>
   <si>
-    <t>Prevalence of diabetes</t>
-  </si>
-  <si>
     <t>Prevalence of alcohol or substance abuse</t>
   </si>
   <si>
-    <t>Prevalence of workplace injuries (Injuries Burden)</t>
-  </si>
-  <si>
-    <t>Prevalence of homicides (Injuries burden)</t>
-  </si>
-  <si>
-    <t>Prevalence of suicides (Injuries burden)</t>
-  </si>
-  <si>
     <t>Basic Skills</t>
   </si>
   <si>
-    <t>Basic Education</t>
-  </si>
-  <si>
     <t>Formal employment</t>
   </si>
   <si>
-    <t>Access to information on employment opportunities</t>
-  </si>
-  <si>
     <t>Daily waged work</t>
   </si>
   <si>
-    <t>Migrant work</t>
-  </si>
-  <si>
     <t>Unpaid or domestic work</t>
   </si>
   <si>
-    <t>Child labour</t>
-  </si>
-  <si>
-    <t>Workplace discrimination</t>
-  </si>
-  <si>
     <t>Market Access</t>
   </si>
   <si>
@@ -854,9 +543,6 @@
     <t>Ease in starting business including agriculture</t>
   </si>
   <si>
-    <t>Bank account</t>
-  </si>
-  <si>
     <t>Access to timely information</t>
   </si>
   <si>
@@ -872,39 +558,18 @@
     <t>Household waste pollution</t>
   </si>
   <si>
-    <t>Prevalence of water bodies pollution</t>
-  </si>
-  <si>
-    <t>Forest Degradation</t>
-  </si>
-  <si>
-    <t>Land degradation</t>
-  </si>
-  <si>
     <t>Biodiversity loss</t>
   </si>
   <si>
     <t>Climate related losses</t>
   </si>
   <si>
-    <t>Prevalence of climate adaptation practices.</t>
-  </si>
-  <si>
     <t>Prevalence of climate events</t>
   </si>
   <si>
-    <t>Prevalence of fossil fuel use</t>
-  </si>
-  <si>
     <t>Lower life expectancy for women</t>
   </si>
   <si>
-    <t>Access to women's health services</t>
-  </si>
-  <si>
-    <t>Prevalence of gender-based violence</t>
-  </si>
-  <si>
     <t>Prevalence of violence from discrimination</t>
   </si>
   <si>
@@ -914,9 +579,6 @@
     <t>Gender based discrimination in employment</t>
   </si>
   <si>
-    <t>Gender based discrimination in education</t>
-  </si>
-  <si>
     <t>Prevalence of discrimination in community decisions</t>
   </si>
   <si>
@@ -932,35 +594,269 @@
     <t>Equitable participation in visiting family and relatives</t>
   </si>
   <si>
-    <t>Health care affordability- Access to information on Health insurance</t>
-  </si>
-  <si>
-    <t>Health care affordability- Access to Health insurance</t>
-  </si>
-  <si>
-    <t>Ability to afford proper home or shelter (basic amenities)</t>
-  </si>
-  <si>
-    <t>Ability to afford proper home or shelter (aspirational)</t>
-  </si>
-  <si>
-    <t>Education affordability</t>
-  </si>
-  <si>
-    <t>Access to information on skills development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to information on Higher education </t>
-  </si>
-  <si>
-    <t>Access to higher education</t>
+    <t>W_1</t>
+  </si>
+  <si>
+    <t>W_2</t>
+  </si>
+  <si>
+    <t>Air Pollution Risks</t>
+  </si>
+  <si>
+    <t>Water Pollution Risks</t>
+  </si>
+  <si>
+    <t>Waste pollution risks</t>
+  </si>
+  <si>
+    <t>Risk of Climate Events</t>
+  </si>
+  <si>
+    <t>Risk to natural resources</t>
+  </si>
+  <si>
+    <t>Risks to climate resilience</t>
+  </si>
+  <si>
+    <t>Environmental Risks</t>
+  </si>
+  <si>
+    <t>Climate Change Risks</t>
+  </si>
+  <si>
+    <t>Risks to Environment and Climate Security</t>
+  </si>
+  <si>
+    <t>Illiteracy risk</t>
+  </si>
+  <si>
+    <t>Unemployment Risk</t>
+  </si>
+  <si>
+    <t>Precarious Employment Risk</t>
+  </si>
+  <si>
+    <t>Ease of doing business</t>
+  </si>
+  <si>
+    <t>Risk to Worker Protection</t>
+  </si>
+  <si>
+    <t>Risks to Business Growth</t>
+  </si>
+  <si>
+    <t>Risk of NEET</t>
+  </si>
+  <si>
+    <t>Risks to Legal Employment</t>
+  </si>
+  <si>
+    <t>Risks of Doing Business</t>
+  </si>
+  <si>
+    <t>Risks to Economic Security</t>
+  </si>
+  <si>
+    <t>Food Affordability Risk</t>
+  </si>
+  <si>
+    <t>Food Production Risk</t>
+  </si>
+  <si>
+    <t>Food Availability Risk</t>
+  </si>
+  <si>
+    <t>Food Safety Risk</t>
+  </si>
+  <si>
+    <t>Malnutrition_Anemia_Risk to Children</t>
+  </si>
+  <si>
+    <t>Anemia Risk to Women</t>
+  </si>
+  <si>
+    <t>Risk of Hunger</t>
+  </si>
+  <si>
+    <t>Food Safety and Health Risks</t>
+  </si>
+  <si>
+    <t>Risks to Food Security</t>
+  </si>
+  <si>
+    <t>Risk to women_s health</t>
+  </si>
+  <si>
+    <t>Risk of gender or discriminatory violence</t>
+  </si>
+  <si>
+    <t>Risk of socio_economic inequality</t>
+  </si>
+  <si>
+    <t>Risk of community exclusion and discrimination</t>
+  </si>
+  <si>
+    <t>Risk to Gender based Agency</t>
+  </si>
+  <si>
+    <t>Risk of Health Inequality</t>
+  </si>
+  <si>
+    <t>Risk of Disempowerment</t>
+  </si>
+  <si>
+    <t>Risk to Gender &amp; Equality Security</t>
+  </si>
+  <si>
+    <t>Maternal Health Risk</t>
+  </si>
+  <si>
+    <t>Children Health Risk</t>
+  </si>
+  <si>
+    <t>Communicable Diseases Risk</t>
+  </si>
+  <si>
+    <t>Non_Communicable Diseases Risk</t>
+  </si>
+  <si>
+    <t>Unintentional injuries risk</t>
+  </si>
+  <si>
+    <t>Intentional injuries risk</t>
+  </si>
+  <si>
+    <t>Maternal and Child Health Risks</t>
+  </si>
+  <si>
+    <t>Disease Burden</t>
+  </si>
+  <si>
+    <t>Injuries Burden</t>
+  </si>
+  <si>
+    <t>Risks to Health Security</t>
+  </si>
+  <si>
+    <t>Shelter Risk</t>
+  </si>
+  <si>
+    <t>Energy Risk</t>
+  </si>
+  <si>
+    <t>Water and Sanitation Risk</t>
+  </si>
+  <si>
+    <t>Technology access risk</t>
+  </si>
+  <si>
+    <t>Public Transportation Risk</t>
+  </si>
+  <si>
+    <t>Risk to public safety and wellbeing</t>
+  </si>
+  <si>
+    <t>Individual Infrastructure Risk</t>
+  </si>
+  <si>
+    <t>Community Infrastructure Risk</t>
+  </si>
+  <si>
+    <t>Risks to Infrastructure Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Risks to Socio_Economic and Health Security</t>
+  </si>
+  <si>
+    <t>Risks to Community Well_Being</t>
+  </si>
+  <si>
+    <t>Diversity of non_plant food sources</t>
+  </si>
+  <si>
+    <t>Food Waste</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia amongst women</t>
+  </si>
+  <si>
+    <t>Access to drinking water</t>
+  </si>
+  <si>
+    <t>Access to healthcare</t>
+  </si>
+  <si>
+    <t>Healthcare affordability</t>
+  </si>
+  <si>
+    <t>Prevalence of TB</t>
+  </si>
+  <si>
+    <t>Prevalence of Diabetes</t>
+  </si>
+  <si>
+    <t>Prevalence of workplace injuries</t>
+  </si>
+  <si>
+    <t>Prevalence of Homicides</t>
+  </si>
+  <si>
+    <t>Prevalence of suicides</t>
+  </si>
+  <si>
+    <t>Basic education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to information on employment opportunities </t>
+  </si>
+  <si>
+    <t>Migrant Work</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Child Labor</t>
+  </si>
+  <si>
+    <t>workplace discrimination</t>
+  </si>
+  <si>
+    <t>Prevalence of waterbodies pollution</t>
+  </si>
+  <si>
+    <t>Prevalence of fossil use</t>
+  </si>
+  <si>
+    <t>Forest degradation</t>
+  </si>
+  <si>
+    <t>Land Degradation</t>
+  </si>
+  <si>
+    <t>Prevalance of climate adaptation practices</t>
+  </si>
+  <si>
+    <t>Access to women health services</t>
+  </si>
+  <si>
+    <t>Prevalence of gender based violence</t>
+  </si>
+  <si>
+    <t>Gender based discrimination in Education</t>
+  </si>
+  <si>
+    <t>Risks to Socio_Economic and Health Security</t>
+  </si>
+  <si>
+    <t>Risk to Gender and Equality Security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,13 +868,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1004,10 +893,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,1164 +1230,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0962189D-D824-4998-B266-1069A0C333E9}">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="71.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
         <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>249</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>250</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>254</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>161</v>
+      </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>257</v>
+      </c>
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>258</v>
+      </c>
+      <c r="B107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>259</v>
+      </c>
+      <c r="B108" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>165</v>
       </c>
-      <c r="B58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>260</v>
+      </c>
+      <c r="B114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>262</v>
+      </c>
+      <c r="B118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>263</v>
+      </c>
+      <c r="B119" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="B120" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="B121" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="B129" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="B130" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="B133" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="B134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" s="2" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
